--- a/Digital_Elevator_PO4_DGELV/Input documents/PO4_DGELV_DIGITAL ELEVATOR_SIQ_V1_1.xlsx
+++ b/Digital_Elevator_PO4_DGELV/Input documents/PO4_DGELV_DIGITAL ELEVATOR_SIQ_V1_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\Software Engineering\Elevator Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\Software Engineering\LOL\Digital_Elevator_PO4_DGELV\Input documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688678CE-7D4E-46E3-89B2-18A71000380B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66552187-D812-4F52-8B19-65D9B7948630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Initiation Phase</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>PROPOSED RESPONSE</t>
+  </si>
+  <si>
+    <t>Reference Questions (SIQ ID)</t>
   </si>
 </sst>
 </file>
@@ -410,9 +413,9 @@
   </sheetPr>
   <dimension ref="A1:AD996"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -426,8 +429,7 @@
     <col min="7" max="7" width="16.54296875" customWidth="1"/>
     <col min="8" max="8" width="10.36328125" customWidth="1"/>
     <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" customWidth="1"/>
-    <col min="11" max="11" width="3.36328125" customWidth="1"/>
+    <col min="10" max="11" width="17.6328125" customWidth="1"/>
     <col min="12" max="30" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -460,7 +462,9 @@
       <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -494,7 +498,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -526,7 +530,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="2"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -558,7 +562,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -590,7 +594,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -622,7 +626,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
